--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474079.623307121</v>
+        <v>2492454.312773242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C2" t="n">
-        <v>201.4156705962625</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.973454219176</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>99.19538242482614</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>154.822967968971</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.49556798565702</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>94.7988412259501</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.3197306044669</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>126.088738681667</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>140.0424879565123</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9575467270116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.6429089205996</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.2156166595409</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>37.32100528936412</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.8512317625308</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>75.06705067831116</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>75.06705067831102</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.89605820929744</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>164.3675597136123</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>143.2925104849746</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.8326399421087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>70.78408973756143</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2311.057514205145</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
         <v>2107.607341885688</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
         <v>2238.84331964269</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487029</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064346</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036447</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>507.3364050629044</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.842488573869</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,31 +5054,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336716</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>198.8765954204875</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333287</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273998</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904392</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>554.6108700904392</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.6108700904392</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1461.218285417131</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1237.432870206636</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>948.3042314201946</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227924</v>
+        <v>948.3042314201946</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227924</v>
+        <v>948.3042314201946</v>
       </c>
       <c r="X19" t="n">
-        <v>874.9271131227924</v>
+        <v>948.3042314201946</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.9271131227924</v>
+        <v>727.5116522766644</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,10 +5765,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.0423951757517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>173.0423951757517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>173.0423951757517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>173.0423951757517</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>173.0423951757517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5908,7 +5908,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488389</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>644.108030042952</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W22" t="n">
-        <v>354.6908600059914</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X22" t="n">
-        <v>354.6908600059914</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.6908600059914</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="23">
@@ -5981,52 +5981,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.095853319815</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905256</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905256</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905256</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514088</v>
@@ -6233,10 +6233,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113634</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.9805482336716</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823779</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,10 +6485,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113634</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.5728295347038</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>496.6366466067969</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>346.5200071944612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>346.5200071944612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>346.5200071944612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>346.5200071944612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>196.1019987424045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6865,7 +6865,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.210845262961</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.210845262961</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>847.2212943649436</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>847.2212943649436</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011341</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870662</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286137</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305963</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870662</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7187,31 +7187,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1332.888432463345</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1043.759793676903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>789.0753054710162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>499.6581354340557</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1427.741252113634</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240062</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>468.5954956259889</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,19 +7661,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.0842369787848</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>822.1480540508779</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1427.417190014912</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1427.417190014912</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1427.417190014912</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1427.417190014912</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V46" t="n">
-        <v>1172.732701809025</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.732701809025</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.732701809025</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.732701809025</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747118</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>87.16935584025322</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>87.16935584025322</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>87.16935584025322</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>87.16935584025322</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>87.16935584025322</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.87443345492571</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>45.79105372596958</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.61636352239643</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>160.5998046942391</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>93.9807484194065</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>91.42651778506642</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>146.4805103800782</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>5.598006161884229</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.75693659211531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,10 +24886,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>12.52318725497453</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>48.75693659211531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25600,19 +25600,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>57.18000134477697</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,10 +25837,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.75201340998612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.18026266623134</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>125.0667464684375</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371443</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029916</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234064.72836501</v>
+        <v>-231536.4072015673</v>
       </c>
       <c r="C6" t="n">
-        <v>355903.150849535</v>
+        <v>358431.4720129772</v>
       </c>
       <c r="D6" t="n">
-        <v>355903.150849535</v>
+        <v>358431.4720129771</v>
       </c>
       <c r="E6" t="n">
-        <v>-61942.13760934892</v>
+        <v>-59907.318371352</v>
       </c>
       <c r="F6" t="n">
-        <v>463217.8988675469</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="G6" t="n">
-        <v>463217.8988675473</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="H6" t="n">
-        <v>463217.8988675471</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="I6" t="n">
-        <v>463217.8988675471</v>
+        <v>465252.7181055441</v>
       </c>
       <c r="J6" t="n">
-        <v>286794.6796749544</v>
+        <v>288829.4989129511</v>
       </c>
       <c r="K6" t="n">
-        <v>463217.8988675469</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="L6" t="n">
-        <v>463217.8988675468</v>
+        <v>465252.718105544</v>
       </c>
       <c r="M6" t="n">
-        <v>328416.8836337102</v>
+        <v>330451.702871707</v>
       </c>
       <c r="N6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="O6" t="n">
-        <v>463217.8988675469</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="P6" t="n">
-        <v>463217.8988675472</v>
+        <v>465252.7181055443</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26808,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C2" t="n">
-        <v>163.857221174745</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.76038744430457</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>287.0425562312274</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>25.00901221296633</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.2382736778235</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>232.9534172441848</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.82580834555199</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>126.048904642161</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,7 +31291,7 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
@@ -31300,7 +31300,7 @@
         <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472037</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
         <v>7.847090081188917</v>
@@ -31364,10 +31364,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478008</v>
@@ -31385,10 +31385,10 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701165</v>
@@ -31473,10 +31473,10 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,7 +31528,7 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
@@ -31537,7 +31537,7 @@
         <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
         <v>7.847090081188917</v>
@@ -31601,10 +31601,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478008</v>
@@ -31622,10 +31622,10 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701165</v>
@@ -31710,10 +31710,10 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770693</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>460.8406984080777</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>420.3639292382662</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>420.3639292382662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>420.3639292382662</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>420.3639292382662</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>420.3639292382662</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492454.312773242</v>
+        <v>2567983.982438046</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>153.6988827401568</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>55.66811582074913</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>48.73873661427178</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>99.19538242482614</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.822967968971</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>17.15656674520552</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481182</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>94.7988412259501</v>
+        <v>305.6066927320425</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229338</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491438</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>126.088738681667</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>161.1518097129918</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>140.0424879565123</v>
+        <v>234.9811171250585</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100.6429089205996</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>99.3403549120503</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>37.32100528936412</v>
+        <v>110.5974551190918</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.8512317625308</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>109.6556138937047</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>227.2273653925558</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>220.6345849966177</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505273999</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.2472579171599693</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>22.71958750778553</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896902</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>104.435614114766</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>142.8790185229509</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.47226067794303</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>49.15010423076814</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>216.3688193949617</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4418,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2226.083456151022</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2226.083456151022</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4574,43 +4576,43 @@
         <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970485</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970485</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970485</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>2267.209817970485</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>2167.012461985812</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
         <v>1866.936832414847</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
         <v>200.8329293182748</v>
@@ -4711,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>710.7991188072369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629044</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="V8" t="n">
-        <v>2370.186508584149</v>
+        <v>1938.614617812681</v>
       </c>
       <c r="W8" t="n">
-        <v>2370.186508584149</v>
+        <v>1938.614617812681</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.720750323069</v>
+        <v>1565.148859551602</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027642008</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598724</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>444.0275768541686</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5232,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>278.8655562905255</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5263,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5285,7 +5287,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607301</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C16" t="n">
-        <v>348.9932348328232</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D16" t="n">
-        <v>198.8765954204875</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>909.523828846558</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>909.523828846558</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>688.7312497030279</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.8631874464247</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185178</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185178</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1461.218285417131</v>
+        <v>1276.126565989332</v>
       </c>
       <c r="T19" t="n">
-        <v>1237.432870206636</v>
+        <v>1052.341150778838</v>
       </c>
       <c r="U19" t="n">
-        <v>948.3042314201946</v>
+        <v>1052.341150778838</v>
       </c>
       <c r="V19" t="n">
-        <v>948.3042314201946</v>
+        <v>1052.341150778838</v>
       </c>
       <c r="W19" t="n">
-        <v>948.3042314201946</v>
+        <v>1052.341150778838</v>
       </c>
       <c r="X19" t="n">
-        <v>948.3042314201946</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.5116522766644</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,10 +5776,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169051</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799445</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X22" t="n">
-        <v>330.8254548799445</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y22" t="n">
-        <v>330.8254548799445</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6072,16 +6074,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>4376.647493502794</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>4148.657942604777</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>3927.865363461246</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845916</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147079</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211718</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1757.603879777665</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>677.7114078547889</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>898.5039869983191</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>898.5039869983191</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>677.7114078547889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6813,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028587</v>
@@ -6859,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>734.0220331715244</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,19 +6949,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>550.2226492899345</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>857.5427825698958</v>
       </c>
       <c r="N36" t="n">
         <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3094.823850208049</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>773.1661474848148</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>604.2299645569079</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>454.1133251445722</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>306.2002315621791</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>159.3102840642687</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>159.3102840642687</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>159.3102840642687</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7366,16 +7368,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.503549752619</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.513998854602</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>954.8146123150545</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7427,13 +7429,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1323227212476</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>241.9570010410683</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7807,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1336.117678709276</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1336.117678709276</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142031</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9720,19 +9722,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>308.1251096272044</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298301</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>297.2466435761044</v>
       </c>
       <c r="P30" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>392.1113620226447</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>15.83804904622974</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>29.47535963978214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>15.83804904622815</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>369.0893880493726</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>146.4805103800787</v>
+        <v>51.54188121153248</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>45.79105372596958</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>187.1826434245407</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>160.5998046942391</v>
+        <v>87.32335486451146</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.9807484194065</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>38.95985912450767</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>59.29563294403516</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.912976061771559</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>166.9995631814679</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>157.1123926741518</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.17985890344634</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>143.6439798136401</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>48.94698478632897</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>130.6818759511692</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>5.621317882561556</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>125.0667464684375</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>70.15417894162925</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218263</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26439,16 +26441,16 @@
         <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26457,7 +26459,7 @@
         <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015673</v>
+        <v>-231536.4072015676</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.4720129772</v>
+        <v>358431.472012977</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.4720129771</v>
+        <v>358431.4720129776</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.318371352</v>
+        <v>-59907.31837135293</v>
       </c>
       <c r="F6" t="n">
+        <v>465252.7181055441</v>
+      </c>
+      <c r="G6" t="n">
+        <v>465252.7181055441</v>
+      </c>
+      <c r="H6" t="n">
+        <v>465252.7181055441</v>
+      </c>
+      <c r="I6" t="n">
+        <v>465252.7181055443</v>
+      </c>
+      <c r="J6" t="n">
+        <v>288829.498912951</v>
+      </c>
+      <c r="K6" t="n">
+        <v>465252.718105544</v>
+      </c>
+      <c r="L6" t="n">
+        <v>465252.7181055438</v>
+      </c>
+      <c r="M6" t="n">
+        <v>330451.7028717066</v>
+      </c>
+      <c r="N6" t="n">
+        <v>465252.7181055436</v>
+      </c>
+      <c r="O6" t="n">
         <v>465252.7181055439</v>
       </c>
-      <c r="G6" t="n">
-        <v>465252.7181055439</v>
-      </c>
-      <c r="H6" t="n">
-        <v>465252.7181055438</v>
-      </c>
-      <c r="I6" t="n">
-        <v>465252.7181055441</v>
-      </c>
-      <c r="J6" t="n">
-        <v>288829.4989129511</v>
-      </c>
-      <c r="K6" t="n">
-        <v>465252.7181055438</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>465252.718105544</v>
-      </c>
-      <c r="M6" t="n">
-        <v>330451.702871707</v>
-      </c>
-      <c r="N6" t="n">
-        <v>465252.7181055439</v>
-      </c>
-      <c r="O6" t="n">
-        <v>465252.7181055442</v>
-      </c>
-      <c r="P6" t="n">
-        <v>465252.7181055443</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,7 +26752,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>216.0322179383122</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>92.94735719746322</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>202.4854308940175</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.0425562312274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.00901221296633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>11.96618320970877</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>232.9534172441848</v>
+        <v>22.14556573809239</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>126.048904642161</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>125.3711886235992</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29329,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633786</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.81250524001411</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188905</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372661</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078602</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644434</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302229</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175832</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678001</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047542</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713944</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35492,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599573</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>460.8406984080777</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>515.218524558729</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>579.6103458172124</v>
       </c>
       <c r="P30" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>725.3059354206574</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>265.0957540022539</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>487.1420318003106</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>679.513765099839</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560966.967546335</v>
+        <v>2565906.230395366</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135.6089145134688</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>44.8878257166867</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120.1855270503898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>128.900394207282</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.719592790138847</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>65.81984096499404</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3889105708059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>325.2557485598855</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>162.5776147681363</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.87916681139856</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.8515152711454</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.92969084765539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.87916681139875</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>209.1695767361639</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36.84806229728063</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750033</v>
+        <v>57.55098163682619</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>201.6473422926464</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>144.5226004203435</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>105.5303094322326</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.337372245452</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.337372245452</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1173.337372245452</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2651.807852920559</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500976</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500976</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500976</v>
+        <v>1982.971840201577</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500976</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.181128500976</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.2378263186104</v>
+        <v>227.6464301928561</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>58.71024726494915</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>632.2273772166277</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>632.2273772166277</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>632.2273772166277</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>404.2378263186104</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.2378263186104</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.349585887291</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.349585887291</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.08388728054</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>784.2956346822962</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>373.3097298926886</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>359.3863258312795</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500976</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157405</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887291</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887291</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.349585887291</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
         <v>309.1903022614628</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866325</v>
@@ -4995,19 +4995,19 @@
         <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>438.9553738610019</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>438.9553738610019</v>
       </c>
       <c r="W10" t="n">
-        <v>667.7988452409105</v>
+        <v>438.9553738610019</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>438.9553738610019</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>218.1627947174718</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5065,19 +5065,19 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247856</v>
+        <v>1149.018213659383</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188987</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W13" t="n">
-        <v>420.0340835819381</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.0445326839207</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7016276700388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570734</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>531.1091870201128</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.1196361220955</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5506,37 +5506,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,13 +5594,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765184</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706316</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5746,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,34 +5968,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6180,19 +6180,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188989</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W25" t="n">
-        <v>420.0340835819383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X25" t="n">
-        <v>192.044532683921</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.044532683921</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3570368996732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>579.3570368996732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>429.2403974873374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>281.3273039049443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4373564070339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.78763177146</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>981.798080873443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0055017299129</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6630,13 +6630,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1240.863955789792</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>951.73531700335</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>951.73531700335</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.446671213422</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>816.762183007535</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1129.148430680395</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>874.4639424745077</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>874.4639424745077</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>874.4639424745077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7414,22 +7414,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.156678913841</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>843.7395088768801</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>615.7499579788628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>394.9573788353326</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.61440165197902</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985813</v>
+        <v>161.385837127432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>55.48955461661661</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.95281337053855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>77.0677756624134</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>129.6455061660969</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338594</v>
+        <v>163.9965794215631</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.59001010593096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>141.7147519782338</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.8408432116525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>30.49014370357223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>120.1793459568046</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
@@ -26322,40 +26322,40 @@
         <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
       <c r="K2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,34 +26420,34 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218263</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230234</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340944</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340943</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015672</v>
+        <v>-231536.4072015675</v>
       </c>
       <c r="C6" t="n">
+        <v>358431.4720129771</v>
+      </c>
+      <c r="D6" t="n">
         <v>358431.4720129772</v>
       </c>
-      <c r="D6" t="n">
-        <v>358431.4720129769</v>
-      </c>
       <c r="E6" t="n">
-        <v>-60881.90963107398</v>
+        <v>-60004.77749732463</v>
       </c>
       <c r="F6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="G6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795713</v>
       </c>
       <c r="H6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795716</v>
       </c>
       <c r="I6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="J6" t="n">
-        <v>287854.9076532296</v>
+        <v>288732.0397869787</v>
       </c>
       <c r="K6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="L6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="M6" t="n">
-        <v>329477.111611985</v>
+        <v>330354.2437457346</v>
       </c>
       <c r="N6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="O6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="P6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795716</v>
       </c>
     </row>
   </sheetData>
@@ -26740,34 +26740,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>246.321455558793</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>129.5278870922848</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.43676775329513</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.5483146130908</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>122.3237733010073</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>143.8958802280735</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>220.4620332769837</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>21.53386219355122</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.496509910249358</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25436541380097</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>226.7961607607228</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349858</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
